--- a/public/files/template/data_pasien.xlsx
+++ b/public/files/template/data_pasien.xlsx
@@ -97,40 +97,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -146,14 +143,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C7:G8" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="C7:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E8" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A7:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="NAMA ANGGOTA" dataDxfId="4"/>
-    <tableColumn id="8" name="USIA" dataDxfId="3"/>
-    <tableColumn id="7" name="KELAMIN" dataDxfId="2"/>
-    <tableColumn id="2" name="NO ANGGOTA / BPJS" dataDxfId="1"/>
-    <tableColumn id="3" name="NIK" dataDxfId="0"/>
+    <tableColumn id="1" name="NIK" dataDxfId="4"/>
+    <tableColumn id="8" name="NAMA ANGGOTA" dataDxfId="3"/>
+    <tableColumn id="7" name="USIA" dataDxfId="2"/>
+    <tableColumn id="2" name="KELAMIN" dataDxfId="1"/>
+    <tableColumn id="3" name="NO ANGGOTA / BPJS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -446,73 +443,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G8"/>
+  <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
